--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ltb-Tnfrsf1a.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ltb-Tnfrsf1a.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.368271812481568</v>
+        <v>0.469846</v>
       </c>
       <c r="H2">
-        <v>0.368271812481568</v>
+        <v>1.409538</v>
       </c>
       <c r="I2">
-        <v>0.004291436355338313</v>
+        <v>0.005395061987533644</v>
       </c>
       <c r="J2">
-        <v>0.004291436355338313</v>
+        <v>0.005395061987533644</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.1838330036519</v>
+        <v>25.88540433333334</v>
       </c>
       <c r="N2">
-        <v>18.1838330036519</v>
+        <v>77.65621300000001</v>
       </c>
       <c r="O2">
-        <v>0.06215136054600255</v>
+        <v>0.08177099014340375</v>
       </c>
       <c r="P2">
-        <v>0.06215136054600255</v>
+        <v>0.08177099014340374</v>
       </c>
       <c r="Q2">
-        <v>6.696593138117039</v>
+        <v>12.16215368439934</v>
       </c>
       <c r="R2">
-        <v>6.696593138117039</v>
+        <v>109.459383159594</v>
       </c>
       <c r="S2">
-        <v>0.0002667186081808546</v>
+        <v>0.0004411595606056658</v>
       </c>
       <c r="T2">
-        <v>0.0002667186081808546</v>
+        <v>0.0004411595606056658</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.368271812481568</v>
+        <v>0.469846</v>
       </c>
       <c r="H3">
-        <v>0.368271812481568</v>
+        <v>1.409538</v>
       </c>
       <c r="I3">
-        <v>0.004291436355338313</v>
+        <v>0.005395061987533644</v>
       </c>
       <c r="J3">
-        <v>0.004291436355338313</v>
+        <v>0.005395061987533644</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>52.348355013117</v>
+        <v>52.814392</v>
       </c>
       <c r="N3">
-        <v>52.348355013117</v>
+        <v>158.443176</v>
       </c>
       <c r="O3">
-        <v>0.1789238542697221</v>
+        <v>0.1668386196347945</v>
       </c>
       <c r="P3">
-        <v>0.1789238542697221</v>
+        <v>0.1668386196347945</v>
       </c>
       <c r="Q3">
-        <v>19.27842358110917</v>
+        <v>24.814630823632</v>
       </c>
       <c r="R3">
-        <v>19.27842358110917</v>
+        <v>223.331677412688</v>
       </c>
       <c r="S3">
-        <v>0.0007678403330503396</v>
+        <v>0.0009001046948442639</v>
       </c>
       <c r="T3">
-        <v>0.0007678403330503396</v>
+        <v>0.0009001046948442639</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.368271812481568</v>
+        <v>0.469846</v>
       </c>
       <c r="H4">
-        <v>0.368271812481568</v>
+        <v>1.409538</v>
       </c>
       <c r="I4">
-        <v>0.004291436355338313</v>
+        <v>0.005395061987533644</v>
       </c>
       <c r="J4">
-        <v>0.004291436355338313</v>
+        <v>0.005395061987533644</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>40.5558067472885</v>
+        <v>48.59267866666666</v>
       </c>
       <c r="N4">
-        <v>40.5558067472885</v>
+        <v>145.778036</v>
       </c>
       <c r="O4">
-        <v>0.1386175602733765</v>
+        <v>0.1535023906571488</v>
       </c>
       <c r="P4">
-        <v>0.1386175602733765</v>
+        <v>0.1535023906571487</v>
       </c>
       <c r="Q4">
-        <v>14.93556045747614</v>
+        <v>22.83107570081867</v>
       </c>
       <c r="R4">
-        <v>14.93556045747614</v>
+        <v>205.479681307368</v>
       </c>
       <c r="S4">
-        <v>0.0005948684376454681</v>
+        <v>0.0008281549128299229</v>
       </c>
       <c r="T4">
-        <v>0.0005948684376454681</v>
+        <v>0.0008281549128299228</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.368271812481568</v>
+        <v>0.469846</v>
       </c>
       <c r="H5">
-        <v>0.368271812481568</v>
+        <v>1.409538</v>
       </c>
       <c r="I5">
-        <v>0.004291436355338313</v>
+        <v>0.005395061987533644</v>
       </c>
       <c r="J5">
-        <v>0.004291436355338313</v>
+        <v>0.005395061987533644</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>49.7414735219473</v>
+        <v>53.14871</v>
       </c>
       <c r="N5">
-        <v>49.7414735219473</v>
+        <v>159.44613</v>
       </c>
       <c r="O5">
-        <v>0.1700136739229355</v>
+        <v>0.1678947172537743</v>
       </c>
       <c r="P5">
-        <v>0.1700136739229355</v>
+        <v>0.1678947172537743</v>
       </c>
       <c r="Q5">
-        <v>18.31838260943146</v>
+        <v>24.97170879866</v>
       </c>
       <c r="R5">
-        <v>18.31838260943146</v>
+        <v>224.74537918794</v>
       </c>
       <c r="S5">
-        <v>0.0007296028611775186</v>
+        <v>0.0009058024069635467</v>
       </c>
       <c r="T5">
-        <v>0.0007296028611775186</v>
+        <v>0.0009058024069635467</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.368271812481568</v>
+        <v>0.469846</v>
       </c>
       <c r="H6">
-        <v>0.368271812481568</v>
+        <v>1.409538</v>
       </c>
       <c r="I6">
-        <v>0.004291436355338313</v>
+        <v>0.005395061987533644</v>
       </c>
       <c r="J6">
-        <v>0.004291436355338313</v>
+        <v>0.005395061987533644</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>115.793641629712</v>
+        <v>119.5972646666667</v>
       </c>
       <c r="N6">
-        <v>115.793641629712</v>
+        <v>358.791794</v>
       </c>
       <c r="O6">
-        <v>0.3957764222987258</v>
+        <v>0.3778031289100865</v>
       </c>
       <c r="P6">
-        <v>0.3957764222987258</v>
+        <v>0.3778031289100865</v>
       </c>
       <c r="Q6">
-        <v>42.64353427681518</v>
+        <v>56.19229641457466</v>
       </c>
       <c r="R6">
-        <v>42.64353427681518</v>
+        <v>505.7306677311719</v>
       </c>
       <c r="S6">
-        <v>0.001698449327238481</v>
+        <v>0.002038271299554081</v>
       </c>
       <c r="T6">
-        <v>0.001698449327238481</v>
+        <v>0.002038271299554081</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.368271812481568</v>
+        <v>0.469846</v>
       </c>
       <c r="H7">
-        <v>0.368271812481568</v>
+        <v>1.409538</v>
       </c>
       <c r="I7">
-        <v>0.004291436355338313</v>
+        <v>0.005395061987533644</v>
       </c>
       <c r="J7">
-        <v>0.004291436355338313</v>
+        <v>0.005395061987533644</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.950260062126</v>
+        <v>16.521302</v>
       </c>
       <c r="N7">
-        <v>15.950260062126</v>
+        <v>49.563906</v>
       </c>
       <c r="O7">
-        <v>0.05451712868923769</v>
+        <v>0.05219015340079215</v>
       </c>
       <c r="P7">
-        <v>0.05451712868923769</v>
+        <v>0.05219015340079215</v>
       </c>
       <c r="Q7">
-        <v>5.874031182631509</v>
+        <v>7.762467659492001</v>
       </c>
       <c r="R7">
-        <v>5.874031182631509</v>
+        <v>69.862208935428</v>
       </c>
       <c r="S7">
-        <v>0.000233956788045652</v>
+        <v>0.0002815691127361635</v>
       </c>
       <c r="T7">
-        <v>0.000233956788045652</v>
+        <v>0.0002815691127361634</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.43443696708626</v>
+        <v>2.898669</v>
       </c>
       <c r="H8">
-        <v>2.43443696708626</v>
+        <v>8.696007</v>
       </c>
       <c r="I8">
-        <v>0.0283682621130728</v>
+        <v>0.03328430791438505</v>
       </c>
       <c r="J8">
-        <v>0.0283682621130728</v>
+        <v>0.03328430791438505</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.1838330036519</v>
+        <v>25.88540433333334</v>
       </c>
       <c r="N8">
-        <v>18.1838330036519</v>
+        <v>77.65621300000001</v>
       </c>
       <c r="O8">
-        <v>0.06215136054600255</v>
+        <v>0.08177099014340375</v>
       </c>
       <c r="P8">
-        <v>0.06215136054600255</v>
+        <v>0.08177099014340374</v>
       </c>
       <c r="Q8">
-        <v>44.26739526741336</v>
+        <v>75.03321909349901</v>
       </c>
       <c r="R8">
-        <v>44.26739526741336</v>
+        <v>675.298971841491</v>
       </c>
       <c r="S8">
-        <v>0.001763126086653092</v>
+        <v>0.002721690814397196</v>
       </c>
       <c r="T8">
-        <v>0.001763126086653092</v>
+        <v>0.002721690814397195</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.43443696708626</v>
+        <v>2.898669</v>
       </c>
       <c r="H9">
-        <v>2.43443696708626</v>
+        <v>8.696007</v>
       </c>
       <c r="I9">
-        <v>0.0283682621130728</v>
+        <v>0.03328430791438505</v>
       </c>
       <c r="J9">
-        <v>0.0283682621130728</v>
+        <v>0.03328430791438505</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>52.348355013117</v>
+        <v>52.814392</v>
       </c>
       <c r="N9">
-        <v>52.348355013117</v>
+        <v>158.443176</v>
       </c>
       <c r="O9">
-        <v>0.1789238542697221</v>
+        <v>0.1668386196347945</v>
       </c>
       <c r="P9">
-        <v>0.1789238542697221</v>
+        <v>0.1668386196347945</v>
       </c>
       <c r="Q9">
-        <v>127.4387706100874</v>
+        <v>153.091440844248</v>
       </c>
       <c r="R9">
-        <v>127.4387706100874</v>
+        <v>1377.822967598232</v>
       </c>
       <c r="S9">
-        <v>0.005075758796204716</v>
+        <v>0.005553107987935468</v>
       </c>
       <c r="T9">
-        <v>0.005075758796204716</v>
+        <v>0.005553107987935468</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.43443696708626</v>
+        <v>2.898669</v>
       </c>
       <c r="H10">
-        <v>2.43443696708626</v>
+        <v>8.696007</v>
       </c>
       <c r="I10">
-        <v>0.0283682621130728</v>
+        <v>0.03328430791438505</v>
       </c>
       <c r="J10">
-        <v>0.0283682621130728</v>
+        <v>0.03328430791438505</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>40.5558067472885</v>
+        <v>48.59267866666666</v>
       </c>
       <c r="N10">
-        <v>40.5558067472885</v>
+        <v>145.778036</v>
       </c>
       <c r="O10">
-        <v>0.1386175602733765</v>
+        <v>0.1535023906571488</v>
       </c>
       <c r="P10">
-        <v>0.1386175602733765</v>
+        <v>0.1535023906571487</v>
       </c>
       <c r="Q10">
-        <v>98.73055517560549</v>
+        <v>140.854091278028</v>
       </c>
       <c r="R10">
-        <v>98.73055517560549</v>
+        <v>1267.686821502252</v>
       </c>
       <c r="S10">
-        <v>0.003932339283309813</v>
+        <v>0.005109220836226763</v>
       </c>
       <c r="T10">
-        <v>0.003932339283309813</v>
+        <v>0.005109220836226762</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.43443696708626</v>
+        <v>2.898669</v>
       </c>
       <c r="H11">
-        <v>2.43443696708626</v>
+        <v>8.696007</v>
       </c>
       <c r="I11">
-        <v>0.0283682621130728</v>
+        <v>0.03328430791438505</v>
       </c>
       <c r="J11">
-        <v>0.0283682621130728</v>
+        <v>0.03328430791438505</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>49.7414735219473</v>
+        <v>53.14871</v>
       </c>
       <c r="N11">
-        <v>49.7414735219473</v>
+        <v>159.44613</v>
       </c>
       <c r="O11">
-        <v>0.1700136739229355</v>
+        <v>0.1678947172537743</v>
       </c>
       <c r="P11">
-        <v>0.1700136739229355</v>
+        <v>0.1678947172537743</v>
       </c>
       <c r="Q11">
-        <v>121.0924819391709</v>
+        <v>154.06051806699</v>
       </c>
       <c r="R11">
-        <v>121.0924819391709</v>
+        <v>1386.54466260291</v>
       </c>
       <c r="S11">
-        <v>0.004822992464652323</v>
+        <v>0.00558825946627324</v>
       </c>
       <c r="T11">
-        <v>0.004822992464652323</v>
+        <v>0.00558825946627324</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.43443696708626</v>
+        <v>2.898669</v>
       </c>
       <c r="H12">
-        <v>2.43443696708626</v>
+        <v>8.696007</v>
       </c>
       <c r="I12">
-        <v>0.0283682621130728</v>
+        <v>0.03328430791438505</v>
       </c>
       <c r="J12">
-        <v>0.0283682621130728</v>
+        <v>0.03328430791438505</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>115.793641629712</v>
+        <v>119.5972646666667</v>
       </c>
       <c r="N12">
-        <v>115.793641629712</v>
+        <v>358.791794</v>
       </c>
       <c r="O12">
-        <v>0.3957764222987258</v>
+        <v>0.3778031289100865</v>
       </c>
       <c r="P12">
-        <v>0.3957764222987258</v>
+        <v>0.3778031289100865</v>
       </c>
       <c r="Q12">
-        <v>281.8923217369094</v>
+        <v>346.672883574062</v>
       </c>
       <c r="R12">
-        <v>281.8923217369094</v>
+        <v>3120.055952166558</v>
       </c>
       <c r="S12">
-        <v>0.01122748928594445</v>
+        <v>0.01257491567366143</v>
       </c>
       <c r="T12">
-        <v>0.01122748928594445</v>
+        <v>0.01257491567366143</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.43443696708626</v>
+        <v>2.898669</v>
       </c>
       <c r="H13">
-        <v>2.43443696708626</v>
+        <v>8.696007</v>
       </c>
       <c r="I13">
-        <v>0.0283682621130728</v>
+        <v>0.03328430791438505</v>
       </c>
       <c r="J13">
-        <v>0.0283682621130728</v>
+        <v>0.03328430791438505</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.950260062126</v>
+        <v>16.521302</v>
       </c>
       <c r="N13">
-        <v>15.950260062126</v>
+        <v>49.563906</v>
       </c>
       <c r="O13">
-        <v>0.05451712868923769</v>
+        <v>0.05219015340079215</v>
       </c>
       <c r="P13">
-        <v>0.05451712868923769</v>
+        <v>0.05219015340079215</v>
       </c>
       <c r="Q13">
-        <v>38.82990272987912</v>
+        <v>47.88978594703801</v>
       </c>
       <c r="R13">
-        <v>38.82990272987912</v>
+        <v>431.008073523342</v>
       </c>
       <c r="S13">
-        <v>0.001546556196308416</v>
+        <v>0.001737113135890956</v>
       </c>
       <c r="T13">
-        <v>0.001546556196308416</v>
+        <v>0.001737113135890956</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.43497277802715</v>
+        <v>4.451121999999999</v>
       </c>
       <c r="H14">
-        <v>4.43497277802715</v>
+        <v>13.353366</v>
       </c>
       <c r="I14">
-        <v>0.05168031537986374</v>
+        <v>0.05111053218304449</v>
       </c>
       <c r="J14">
-        <v>0.05168031537986374</v>
+        <v>0.0511105321830445</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>18.1838330036519</v>
+        <v>25.88540433333334</v>
       </c>
       <c r="N14">
-        <v>18.1838330036519</v>
+        <v>77.65621300000001</v>
       </c>
       <c r="O14">
-        <v>0.06215136054600255</v>
+        <v>0.08177099014340375</v>
       </c>
       <c r="P14">
-        <v>0.06215136054600255</v>
+        <v>0.08177099014340374</v>
       </c>
       <c r="Q14">
-        <v>80.64480437138783</v>
+        <v>115.2190927069953</v>
       </c>
       <c r="R14">
-        <v>80.64480437138783</v>
+        <v>1036.971834362958</v>
       </c>
       <c r="S14">
-        <v>0.003212001914305032</v>
+        <v>0.004179358823363851</v>
       </c>
       <c r="T14">
-        <v>0.003212001914305032</v>
+        <v>0.004179358823363851</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.43497277802715</v>
+        <v>4.451121999999999</v>
       </c>
       <c r="H15">
-        <v>4.43497277802715</v>
+        <v>13.353366</v>
       </c>
       <c r="I15">
-        <v>0.05168031537986374</v>
+        <v>0.05111053218304449</v>
       </c>
       <c r="J15">
-        <v>0.05168031537986374</v>
+        <v>0.0511105321830445</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>52.348355013117</v>
+        <v>52.814392</v>
       </c>
       <c r="N15">
-        <v>52.348355013117</v>
+        <v>158.443176</v>
       </c>
       <c r="O15">
-        <v>0.1789238542697221</v>
+        <v>0.1668386196347945</v>
       </c>
       <c r="P15">
-        <v>0.1789238542697221</v>
+        <v>0.1668386196347945</v>
       </c>
       <c r="Q15">
-        <v>232.163529457675</v>
+        <v>235.0833021478239</v>
       </c>
       <c r="R15">
-        <v>232.163529457675</v>
+        <v>2115.749719330416</v>
       </c>
       <c r="S15">
-        <v>0.009246841217640016</v>
+        <v>0.008527210638218883</v>
       </c>
       <c r="T15">
-        <v>0.009246841217640016</v>
+        <v>0.008527210638218883</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.43497277802715</v>
+        <v>4.451121999999999</v>
       </c>
       <c r="H16">
-        <v>4.43497277802715</v>
+        <v>13.353366</v>
       </c>
       <c r="I16">
-        <v>0.05168031537986374</v>
+        <v>0.05111053218304449</v>
       </c>
       <c r="J16">
-        <v>0.05168031537986374</v>
+        <v>0.0511105321830445</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>40.5558067472885</v>
+        <v>48.59267866666666</v>
       </c>
       <c r="N16">
-        <v>40.5558067472885</v>
+        <v>145.778036</v>
       </c>
       <c r="O16">
-        <v>0.1386175602733765</v>
+        <v>0.1535023906571488</v>
       </c>
       <c r="P16">
-        <v>0.1386175602733765</v>
+        <v>0.1535023906571487</v>
       </c>
       <c r="Q16">
-        <v>179.8638989151543</v>
+        <v>216.2919410521306</v>
       </c>
       <c r="R16">
-        <v>179.8638989151543</v>
+        <v>1946.627469469175</v>
       </c>
       <c r="S16">
-        <v>0.007163799232115371</v>
+        <v>0.00784558887785647</v>
       </c>
       <c r="T16">
-        <v>0.007163799232115371</v>
+        <v>0.00784558887785647</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.43497277802715</v>
+        <v>4.451121999999999</v>
       </c>
       <c r="H17">
-        <v>4.43497277802715</v>
+        <v>13.353366</v>
       </c>
       <c r="I17">
-        <v>0.05168031537986374</v>
+        <v>0.05111053218304449</v>
       </c>
       <c r="J17">
-        <v>0.05168031537986374</v>
+        <v>0.0511105321830445</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>49.7414735219473</v>
+        <v>53.14871</v>
       </c>
       <c r="N17">
-        <v>49.7414735219473</v>
+        <v>159.44613</v>
       </c>
       <c r="O17">
-        <v>0.1700136739229355</v>
+        <v>0.1678947172537743</v>
       </c>
       <c r="P17">
-        <v>0.1700136739229355</v>
+        <v>0.1678947172537743</v>
       </c>
       <c r="Q17">
-        <v>220.6020810087946</v>
+        <v>236.5713923526199</v>
       </c>
       <c r="R17">
-        <v>220.6020810087946</v>
+        <v>2129.14253117358</v>
       </c>
       <c r="S17">
-        <v>0.008786360287226619</v>
+        <v>0.008581188349562185</v>
       </c>
       <c r="T17">
-        <v>0.008786360287226619</v>
+        <v>0.008581188349562186</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.43497277802715</v>
+        <v>4.451121999999999</v>
       </c>
       <c r="H18">
-        <v>4.43497277802715</v>
+        <v>13.353366</v>
       </c>
       <c r="I18">
-        <v>0.05168031537986374</v>
+        <v>0.05111053218304449</v>
       </c>
       <c r="J18">
-        <v>0.05168031537986374</v>
+        <v>0.0511105321830445</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>115.793641629712</v>
+        <v>119.5972646666667</v>
       </c>
       <c r="N18">
-        <v>115.793641629712</v>
+        <v>358.791794</v>
       </c>
       <c r="O18">
-        <v>0.3957764222987258</v>
+        <v>0.3778031289100865</v>
       </c>
       <c r="P18">
-        <v>0.3957764222987258</v>
+        <v>0.3778031289100865</v>
       </c>
       <c r="Q18">
-        <v>513.5416484964042</v>
+        <v>532.3420158976226</v>
       </c>
       <c r="R18">
-        <v>513.5416484964042</v>
+        <v>4791.078143078603</v>
       </c>
       <c r="S18">
-        <v>0.02045385032431228</v>
+        <v>0.01930971897901388</v>
       </c>
       <c r="T18">
-        <v>0.02045385032431228</v>
+        <v>0.01930971897901389</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>27</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.43497277802715</v>
+        <v>4.451121999999999</v>
       </c>
       <c r="H19">
-        <v>4.43497277802715</v>
+        <v>13.353366</v>
       </c>
       <c r="I19">
-        <v>0.05168031537986374</v>
+        <v>0.05111053218304449</v>
       </c>
       <c r="J19">
-        <v>0.05168031537986374</v>
+        <v>0.0511105321830445</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>15.950260062126</v>
+        <v>16.521302</v>
       </c>
       <c r="N19">
-        <v>15.950260062126</v>
+        <v>49.563906</v>
       </c>
       <c r="O19">
-        <v>0.05451712868923769</v>
+        <v>0.05219015340079215</v>
       </c>
       <c r="P19">
-        <v>0.05451712868923769</v>
+        <v>0.05219015340079215</v>
       </c>
       <c r="Q19">
-        <v>70.73896917798245</v>
+        <v>73.53833080084399</v>
       </c>
       <c r="R19">
-        <v>70.73896917798245</v>
+        <v>661.8449772075959</v>
       </c>
       <c r="S19">
-        <v>0.002817462404264421</v>
+        <v>0.002667466515029216</v>
       </c>
       <c r="T19">
-        <v>0.002817462404264421</v>
+        <v>0.002667466515029216</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>78.57783147534511</v>
+        <v>79.268519</v>
       </c>
       <c r="H20">
-        <v>78.57783147534511</v>
+        <v>237.805557</v>
       </c>
       <c r="I20">
-        <v>0.9156599861517251</v>
+        <v>0.9102100979150368</v>
       </c>
       <c r="J20">
-        <v>0.9156599861517251</v>
+        <v>0.9102100979150369</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>18.1838330036519</v>
+        <v>25.88540433333334</v>
       </c>
       <c r="N20">
-        <v>18.1838330036519</v>
+        <v>77.65621300000001</v>
       </c>
       <c r="O20">
-        <v>0.06215136054600255</v>
+        <v>0.08177099014340375</v>
       </c>
       <c r="P20">
-        <v>0.06215136054600255</v>
+        <v>0.08177099014340374</v>
       </c>
       <c r="Q20">
-        <v>1428.846165336777</v>
+        <v>2051.897665219516</v>
       </c>
       <c r="R20">
-        <v>1428.846165336777</v>
+        <v>18467.07898697564</v>
       </c>
       <c r="S20">
-        <v>0.05690951393686357</v>
+        <v>0.07442878094503703</v>
       </c>
       <c r="T20">
-        <v>0.05690951393686357</v>
+        <v>0.07442878094503703</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>26</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>78.57783147534511</v>
+        <v>79.268519</v>
       </c>
       <c r="H21">
-        <v>78.57783147534511</v>
+        <v>237.805557</v>
       </c>
       <c r="I21">
-        <v>0.9156599861517251</v>
+        <v>0.9102100979150368</v>
       </c>
       <c r="J21">
-        <v>0.9156599861517251</v>
+        <v>0.9102100979150369</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>52.348355013117</v>
+        <v>52.814392</v>
       </c>
       <c r="N21">
-        <v>52.348355013117</v>
+        <v>158.443176</v>
       </c>
       <c r="O21">
-        <v>0.1789238542697221</v>
+        <v>0.1668386196347945</v>
       </c>
       <c r="P21">
-        <v>0.1789238542697221</v>
+        <v>0.1668386196347945</v>
       </c>
       <c r="Q21">
-        <v>4113.420218232245</v>
+        <v>4186.518635725448</v>
       </c>
       <c r="R21">
-        <v>4113.420218232245</v>
+        <v>37678.66772152903</v>
       </c>
       <c r="S21">
-        <v>0.163833413922827</v>
+        <v>0.1518581963137959</v>
       </c>
       <c r="T21">
-        <v>0.163833413922827</v>
+        <v>0.1518581963137959</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>21</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>78.57783147534511</v>
+        <v>79.268519</v>
       </c>
       <c r="H22">
-        <v>78.57783147534511</v>
+        <v>237.805557</v>
       </c>
       <c r="I22">
-        <v>0.9156599861517251</v>
+        <v>0.9102100979150368</v>
       </c>
       <c r="J22">
-        <v>0.9156599861517251</v>
+        <v>0.9102100979150369</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>40.5558067472885</v>
+        <v>48.59267866666666</v>
       </c>
       <c r="N22">
-        <v>40.5558067472885</v>
+        <v>145.778036</v>
       </c>
       <c r="O22">
-        <v>0.1386175602733765</v>
+        <v>0.1535023906571488</v>
       </c>
       <c r="P22">
-        <v>0.1386175602733765</v>
+        <v>0.1535023906571487</v>
       </c>
       <c r="Q22">
-        <v>3186.7873479351</v>
+        <v>3851.869672149561</v>
       </c>
       <c r="R22">
-        <v>3186.7873479351</v>
+        <v>34666.82704934604</v>
       </c>
       <c r="S22">
-        <v>0.1269265533203059</v>
+        <v>0.1397194260302356</v>
       </c>
       <c r="T22">
-        <v>0.1269265533203059</v>
+        <v>0.1397194260302356</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>78.57783147534511</v>
+        <v>79.268519</v>
       </c>
       <c r="H23">
-        <v>78.57783147534511</v>
+        <v>237.805557</v>
       </c>
       <c r="I23">
-        <v>0.9156599861517251</v>
+        <v>0.9102100979150368</v>
       </c>
       <c r="J23">
-        <v>0.9156599861517251</v>
+        <v>0.9102100979150369</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>49.7414735219473</v>
+        <v>53.14871</v>
       </c>
       <c r="N23">
-        <v>49.7414735219473</v>
+        <v>159.44613</v>
       </c>
       <c r="O23">
-        <v>0.1700136739229355</v>
+        <v>0.1678947172537743</v>
       </c>
       <c r="P23">
-        <v>0.1700136739229355</v>
+        <v>0.1678947172537743</v>
       </c>
       <c r="Q23">
-        <v>3908.577123742916</v>
+        <v>4213.01952846049</v>
       </c>
       <c r="R23">
-        <v>3908.577123742916</v>
+        <v>37917.17575614441</v>
       </c>
       <c r="S23">
-        <v>0.155674718309879</v>
+        <v>0.1528194670309753</v>
       </c>
       <c r="T23">
-        <v>0.155674718309879</v>
+        <v>0.1528194670309753</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>78.57783147534511</v>
+        <v>79.268519</v>
       </c>
       <c r="H24">
-        <v>78.57783147534511</v>
+        <v>237.805557</v>
       </c>
       <c r="I24">
-        <v>0.9156599861517251</v>
+        <v>0.9102100979150368</v>
       </c>
       <c r="J24">
-        <v>0.9156599861517251</v>
+        <v>0.9102100979150369</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>115.793641629712</v>
+        <v>119.5972646666667</v>
       </c>
       <c r="N24">
-        <v>115.793641629712</v>
+        <v>358.791794</v>
       </c>
       <c r="O24">
-        <v>0.3957764222987258</v>
+        <v>0.3778031289100865</v>
       </c>
       <c r="P24">
-        <v>0.3957764222987258</v>
+        <v>0.3778031289100865</v>
       </c>
       <c r="Q24">
-        <v>9098.813257896016</v>
+        <v>9480.298046577695</v>
       </c>
       <c r="R24">
-        <v>9098.813257896016</v>
+        <v>85322.68241919925</v>
       </c>
       <c r="S24">
-        <v>0.3623966333612305</v>
+        <v>0.3438802229578571</v>
       </c>
       <c r="T24">
-        <v>0.3623966333612305</v>
+        <v>0.3438802229578572</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>27</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>78.57783147534511</v>
+        <v>79.268519</v>
       </c>
       <c r="H25">
-        <v>78.57783147534511</v>
+        <v>237.805557</v>
       </c>
       <c r="I25">
-        <v>0.9156599861517251</v>
+        <v>0.9102100979150368</v>
       </c>
       <c r="J25">
-        <v>0.9156599861517251</v>
+        <v>0.9102100979150369</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>15.950260062126</v>
+        <v>16.521302</v>
       </c>
       <c r="N25">
-        <v>15.950260062126</v>
+        <v>49.563906</v>
       </c>
       <c r="O25">
-        <v>0.05451712868923769</v>
+        <v>0.05219015340079215</v>
       </c>
       <c r="P25">
-        <v>0.05451712868923769</v>
+        <v>0.05219015340079215</v>
       </c>
       <c r="Q25">
-        <v>1253.336847149664</v>
+        <v>1309.619141491738</v>
       </c>
       <c r="R25">
-        <v>1253.336847149664</v>
+        <v>11786.57227342564</v>
       </c>
       <c r="S25">
-        <v>0.0499191533006192</v>
+        <v>0.04750400463713582</v>
       </c>
       <c r="T25">
-        <v>0.0499191533006192</v>
+        <v>0.04750400463713582</v>
       </c>
     </row>
   </sheetData>
